--- a/va_facility_data_2025-02-20/Armstrong County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Armstrong%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Armstrong County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Armstrong%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd99122713ab8456d8ee7db0ff5eedac9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdba6797c08924cd9a246328f0b145ac1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0eecf9a4cc8b44a4ba6e097b251ad7ae"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7d67a29d824943b1ab65390123b0e7c1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rac77a79c241042f687d88b9f79bb4ba1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf6a7a76e88fd42519440e3e0bb37b450"/>
   </x:sheets>
 </x:workbook>
 </file>
